--- a/Stage X/X-1-3 Database. Basics/Tabs.xlsx
+++ b/Stage X/X-1-3 Database. Basics/Tabs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer-PC\Desktop\GB-Git\Stage X\X-1-2 Database. Basics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer-PC\Desktop\GB-Git\Stage X\X-1-3 Database. Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3847B655-C3B9-4756-852B-A1C98DDB1668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD3546-0794-4D9C-A437-2B4D02F73594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>.open teachers.db</t>
   </si>
   <si>
-    <t>performances</t>
-  </si>
-  <si>
     <t>streams</t>
   </si>
   <si>
@@ -175,7 +172,8 @@
   </si>
   <si>
     <r>
-      <t>CREATE TABLE streams (</t>
+      <t xml:space="preserve">CREATE TABLE teachers (
+id </t>
     </r>
     <r>
       <rPr>
@@ -186,13 +184,165 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>id INTEGER PRIMARY KEY AUTOINCREMENT,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>INTEGER PRIMARY KEY AUTOINCREMENT,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TEXT NOT NULL,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+surname </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TEXT NOT NULL UNIQUE,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TEXT NOT NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+);</t>
+    </r>
+  </si>
+  <si>
+    <t>grades</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE grades (teacher_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INTEGER NOT NULL,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+stream_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INTEGER NOT NULL,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+performance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REAL NOT NULL,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -203,6 +353,94 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRIMARY KEY(teacher_id, stream_id),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOREIGN KEY (teacher_id) REFERENCES teachers(id),
+FOREIGN KEY (stream_id) REFERENCES streams(id)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CREATE TABLE streams (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> INTEGER PRIMARY KEY AUTOINCREMENT,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
@@ -314,233 +552,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>FOREIGN KEY (course_id) REFERENCES courses(id)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CREATE TABLE performances (teacher_id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INTEGER NOT NULL,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-stream_id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INTEGER NOT NULL,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-performance </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>REAL NOT NULL,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PRIMARY KEY(teacher_id, stream_id),</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FOREIGN KEY (teacher_id) REFERENCES teachers(id),
-FOREIGN KEY (stream_id) REFERENCES streams(id)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CREATE TABLE teachers (
-id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INTEGER PRIMARY KEY AUTOINCREMENT,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TEXT NOT NULL,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-surname </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TEXT NOT NULL UNIQUE,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-email </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TEXT NOT NULL</t>
     </r>
     <r>
       <rPr>
@@ -677,9 +688,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -690,6 +698,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,7 +1195,7 @@
   <dimension ref="B1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,31 +1207,31 @@
     <col min="5" max="5" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="10"/>
+    <col min="8" max="8" width="20.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="9"/>
     <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="9.140625" style="12"/>
-    <col min="17" max="17" width="9.140625" style="10"/>
+    <col min="16" max="16" width="9.140625" style="11"/>
+    <col min="17" max="17" width="9.140625" style="9"/>
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="9"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -1235,15 +1246,15 @@
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="H2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
@@ -1258,13 +1269,13 @@
       <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
@@ -1279,13 +1290,13 @@
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
@@ -1300,13 +1311,13 @@
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
@@ -1321,35 +1332,35 @@
       <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -1360,15 +1371,15 @@
       <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="H10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
@@ -1377,13 +1388,13 @@
       <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
@@ -1394,13 +1405,13 @@
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
@@ -1410,37 +1421,37 @@
       <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1463,15 +1474,15 @@
       <c r="F17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="H17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
@@ -1489,13 +1500,13 @@
       <c r="F18" s="2">
         <v>34</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
@@ -1513,13 +1524,13 @@
       <c r="F19" s="2">
         <v>37</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
@@ -1537,13 +1548,13 @@
       <c r="F20" s="2">
         <v>35</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
@@ -1561,47 +1572,47 @@
       <c r="F21" s="2">
         <v>41</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
@@ -1613,13 +1624,13 @@
       <c r="D25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
@@ -1631,13 +1642,13 @@
       <c r="D26" s="2">
         <v>4.7</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
@@ -1649,13 +1660,13 @@
       <c r="D27" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -1667,13 +1678,13 @@
       <c r="D28" s="2">
         <v>4.8</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
@@ -1685,13 +1696,13 @@
       <c r="D29" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
